--- a/target/test-classes/inputData.xlsx
+++ b/target/test-classes/inputData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2373661_cognizant_com/Documents/Documents/Hackathon Project/Display Bookshelves/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2373663\eclipse-workspace\QEA25SD002\Hackathon_Display_Bookshelf\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_F25DC773A252ABDACC10482F9198565E5ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3B462F7-828F-4056-BA5C-5EF250F26264}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBBCA2F-10F5-4CAB-B5F4-18641CC848D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,12 +33,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Mob No</t>
   </si>
   <si>
@@ -51,9 +45,6 @@
     <t>Time Slot</t>
   </si>
   <si>
-    <t>Ankit</t>
-  </si>
-  <si>
     <t>abc@gmail.com</t>
   </si>
   <si>
@@ -63,17 +54,26 @@
     <t>12 PM - 1 PM</t>
   </si>
   <si>
-    <t>it@gmail</t>
-  </si>
-  <si>
     <t>6 PM - 7 PM</t>
+  </si>
+  <si>
+    <t>VALID_DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John </t>
+  </si>
+  <si>
+    <t>INVALID_DATA</t>
+  </si>
+  <si>
+    <t>it$mail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +85,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,10 +119,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -131,10 +140,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,75 +408,77 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
     <col min="3" max="3" width="17.08984375" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" customWidth="1"/>
     <col min="6" max="6" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>9876543210</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>123456780</v>
+        <v>123</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{1C48084C-502D-4516-9174-8AF7F79D8EAB}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{AF41570D-7DC5-44FE-94C0-06993BA653B2}"/>
+    <hyperlink ref="D3" r:id="rId2" display="it@gmail" xr:uid="{AF41570D-7DC5-44FE-94C0-06993BA653B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>